--- a/app/seeds/05_status.xlsx
+++ b/app/seeds/05_status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>名前</t>
   </si>
@@ -370,6 +370,60 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>攻撃力低下</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力低下</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石化</t>
+    <rPh sb="0" eb="2">
+      <t>セキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力が下がる</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力が下がる</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石になる</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -462,8 +516,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3989">
+  <cellStyleXfs count="3991">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4465,7 +4521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3989">
+  <cellStyles count="3991">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -6460,6 +6516,7 @@
     <cellStyle name="ハイパーリンク" xfId="3983" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3985" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3987" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3989" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -8455,6 +8512,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3984" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3986" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3988" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3990" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -8788,10 +8846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8939,6 +8997,39 @@
       </c>
       <c r="C15" s="9" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/05_status.xlsx
+++ b/app/seeds/05_status.xlsx
@@ -371,26 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃力低下</t>
-    <rPh sb="0" eb="3">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>防御力低下</t>
-    <rPh sb="0" eb="3">
-      <t>ボウギョリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>石化</t>
     <rPh sb="0" eb="2">
       <t>セキカ</t>
@@ -421,6 +401,20 @@
     <t>石になる</t>
     <rPh sb="0" eb="1">
       <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力ダウン</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力ダウン</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8849,7 +8843,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9004,10 +8998,10 @@
         <v>1004</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9015,10 +9009,10 @@
         <v>1005</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9026,10 +9020,10 @@
         <v>1006</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/05_status.xlsx
+++ b/app/seeds/05_status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>名前</t>
   </si>
@@ -371,13 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>石化</t>
-    <rPh sb="0" eb="2">
-      <t>セキカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃力が下がる</t>
     <rPh sb="0" eb="3">
       <t>コウゲキリョク</t>
@@ -394,13 +387,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石になる</t>
-    <rPh sb="0" eb="1">
-      <t>イシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8840,10 +8826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8998,10 +8984,10 @@
         <v>1004</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9009,21 +8995,10 @@
         <v>1005</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/05_status.xlsx
+++ b/app/seeds/05_status.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="ステータスマスタ" sheetId="38" r:id="rId1"/>
-    <sheet name="#options" sheetId="23" r:id="rId2"/>
+    <sheet name="属性マスタ" sheetId="113" r:id="rId2"/>
+    <sheet name="#options" sheetId="23" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>名前</t>
   </si>
@@ -401,6 +402,56 @@
     <t>防御力ダウン</t>
     <rPh sb="0" eb="3">
       <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attribute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attribute_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性CD</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8829,7 +8880,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8837,9 +8888,7 @@
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="48.5" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="4" max="6" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9014,6 +9063,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="6" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>

--- a/app/seeds/05_status.xlsx
+++ b/app/seeds/05_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ステータスマスタ" sheetId="38" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>名前</t>
   </si>
@@ -452,6 +452,13 @@
     <t>風</t>
     <rPh sb="0" eb="1">
       <t>カゼ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性CD</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8879,7 +8886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -9066,8 +9073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9173,7 +9180,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>0</v>

--- a/app/seeds/05_status.xlsx
+++ b/app/seeds/05_status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>名前</t>
   </si>
@@ -367,6 +367,60 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力が下がる</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力が下がる</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石化</t>
+    <rPh sb="0" eb="2">
+      <t>セキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石になる</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力低下</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力低下</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8796,10 +8850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8945,6 +8999,39 @@
       </c>
       <c r="C15" s="9" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/05_status.xlsx
+++ b/app/seeds/05_status.xlsx
@@ -391,6 +391,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>攻撃力ダウン</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力ダウン</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>石化</t>
     <rPh sb="0" eb="2">
       <t>セキカ</t>
@@ -401,26 +415,6 @@
     <t>石になる</t>
     <rPh sb="0" eb="1">
       <t>イシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃力低下</t>
-    <rPh sb="0" eb="3">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>防御力低下</t>
-    <rPh sb="0" eb="3">
-      <t>ボウギョリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8853,7 +8847,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9006,7 +9000,7 @@
         <v>1004</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>65</v>
@@ -9017,7 +9011,7 @@
         <v>1005</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>66</v>
@@ -9028,10 +9022,10 @@
         <v>1006</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/05_status.xlsx
+++ b/app/seeds/05_status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>名前</t>
   </si>
@@ -401,20 +401,6 @@
     <t>防御力ダウン</t>
     <rPh sb="0" eb="3">
       <t>ボウギョリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石化</t>
-    <rPh sb="0" eb="2">
-      <t>セキカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石になる</t>
-    <rPh sb="0" eb="1">
-      <t>イシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8844,10 +8830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9015,17 +9001,6 @@
       </c>
       <c r="C17" s="9" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/05_status.xlsx
+++ b/app/seeds/05_status.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ステータスマスタ" sheetId="38" r:id="rId1"/>
-    <sheet name="#options" sheetId="23" r:id="rId2"/>
+    <sheet name="属性マスタ" sheetId="114" r:id="rId2"/>
+    <sheet name="#options" sheetId="23" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t>名前</t>
   </si>
@@ -402,6 +403,76 @@
     <rPh sb="0" eb="3">
       <t>ボウギョリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性CD</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コレクション定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attribute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attribute_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8832,8 +8903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9016,6 +9087,178 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>

--- a/app/seeds/05_status.xlsx
+++ b/app/seeds/05_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910"/>
   </bookViews>
   <sheets>
     <sheet name="ステータスマスタ" sheetId="38" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>名前</t>
   </si>
@@ -567,8 +567,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3993">
+  <cellStyleXfs count="3997">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4574,7 +4578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3993">
+  <cellStyles count="3997">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -6571,6 +6575,8 @@
     <cellStyle name="ハイパーリンク" xfId="3987" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3989" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3991" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3993" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3995" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -8568,6 +8574,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3988" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3990" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3992" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3994" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3996" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -8901,10 +8909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8944,133 +8952,141 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>53</v>
+      <c r="A7" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>47</v>
+      <c r="A12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>1001</v>
+      <c r="A13" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>1005</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9090,8 +9106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9250,6 +9266,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/app/seeds/05_status.xlsx
+++ b/app/seeds/05_status.xlsx
@@ -567,8 +567,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3993">
+  <cellStyleXfs count="3997">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4574,7 +4578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3993">
+  <cellStyles count="3997">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -6571,6 +6575,8 @@
     <cellStyle name="ハイパーリンク" xfId="3987" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3989" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3991" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3993" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3995" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -8568,6 +8574,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3988" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3990" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3992" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3994" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3996" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -8901,10 +8909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8944,133 +8952,141 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>53</v>
+      <c r="A7" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>47</v>
+      <c r="A12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>1001</v>
+      <c r="A13" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>1005</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9088,10 +9104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9128,128 +9144,121 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>81</v>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>53</v>
+      <c r="A8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2"/>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>79</v>
+      <c r="A12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>70</v>
+      <c r="A13" s="2">
+        <v>1001</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>1004</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
